--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,31 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-10 23:33:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,31 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-11-10 23:41:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,31 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-11-10 23:44:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,31 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-11-16 21:43:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,31 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-11-16 21:46:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>student_id</t>
+          <t>person_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -450,11 +450,6 @@
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
@@ -471,292 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tang Chee Keong</t>
+          <t>Tang Chee Keong_2K5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-11-10 21:57:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-11-10 21:58:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-11-10 22:15:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-11-10 22:17:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-11-10 22:18:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-11-10 22:21:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-11-10 23:29:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-11-10 23:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-11-10 23:41:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-11-10 23:44:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-11-16 21:43:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2K5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-11-16 21:46:45</t>
+          <t>2025-11-16 22:55:58</t>
         </is>
       </c>
     </row>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong_2K5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-16 22:57:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,26 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M001734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong_2K5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-16 22:59:13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,57 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M001734</t>
+          <t>M001743</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tang Chee Keong_2K5</t>
+          <t>Tang Chee Keong</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-16 22:55:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong_2K5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-11-16 22:57:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M001734</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tang Chee Keong_2K5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-11-16 22:59:13</t>
+          <t>2025-11-17 14:03:29</t>
         </is>
       </c>
     </row>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-17 19:57:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,26 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-17 19:57:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-11-17 19:59:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,26 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:09:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,26 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:10:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,26 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:13:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,26 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:14:41</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,26 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M001743</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tang Chee Keong</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:18:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,26 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M001640</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tao Poek Shein</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-11-17 20:19:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,26 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:51:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:51:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,26 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:52:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,26 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:52:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,26 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:53:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,26 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-11-18 08:56:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,26 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-11-18 09:02:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,26 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-11-18 09:06:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,187 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-18 08:49:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:50:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:51:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:51:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:52:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:52:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:53:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-11-18 08:56:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-11-18 09:02:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>M000001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Adriana</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-11-18 09:06:50</t>
+          <t>2025-11-18 09:59:58</t>
         </is>
       </c>
     </row>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,26 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:00:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,26 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:00:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:07:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,26 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:26:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,26 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:27:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,26 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-11-18 10:28:41</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,26 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-11-18 11:11:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,26 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-11-18 11:16:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,26 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-11-18 11:20:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,26 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-11-18 11:21:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,26 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-11-18 11:24:38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_export.xlsx
+++ b/attendance_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,26 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M000001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:54:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
